--- a/Documentation/Testing/CinemaSea_Testing_v.0.2.xlsx
+++ b/Documentation/Testing/CinemaSea_Testing_v.0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="162">
   <si>
     <t>Vytvořit film</t>
   </si>
@@ -496,6 +496,18 @@
   </si>
   <si>
     <t>Nízká</t>
+  </si>
+  <si>
+    <t>Typ testů</t>
+  </si>
+  <si>
+    <t>Integrační testy</t>
+  </si>
+  <si>
+    <t>Unit testy</t>
+  </si>
+  <si>
+    <t>Procesní testy</t>
   </si>
 </sst>
 </file>
@@ -597,7 +609,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +882,51 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -894,70 +957,34 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1269,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1279,12 +1306,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,11 +1329,11 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1318,11 +1345,11 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
         <v>26</v>
@@ -1334,11 +1361,11 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1350,11 +1377,11 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
@@ -1366,11 +1393,11 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1388,11 +1415,11 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1404,11 +1431,11 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1420,11 +1447,11 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1436,11 +1463,11 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1458,11 +1485,11 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1480,11 +1507,11 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1496,11 +1523,11 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>25</v>
@@ -1516,11 +1543,11 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>27</v>
@@ -1536,11 +1563,11 @@
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1552,11 +1579,11 @@
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
@@ -1574,11 +1601,11 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1590,11 +1617,11 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -1606,11 +1633,11 @@
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
         <v>27</v>
@@ -1622,11 +1649,11 @@
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1638,11 +1665,11 @@
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1652,11 +1679,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="C23:E23"/>
@@ -1673,6 +1695,11 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1684,7 +1711,7 @@
   <dimension ref="B3:F22"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1743,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="59" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1733,7 +1760,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1748,7 +1775,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
@@ -1763,7 +1790,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
@@ -1785,7 +1812,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="60" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1802,7 +1829,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="35"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="6" t="s">
         <v>55</v>
       </c>
@@ -1817,7 +1844,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="35"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="6" t="s">
         <v>53</v>
       </c>
@@ -1863,7 +1890,7 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="60" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1880,7 +1907,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="35"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1895,7 +1922,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="6" t="s">
         <v>43</v>
       </c>
@@ -1910,7 +1937,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="6" t="s">
         <v>44</v>
       </c>
@@ -1925,7 +1952,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="35"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6" t="s">
         <v>45</v>
       </c>
@@ -1940,7 +1967,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
@@ -1955,7 +1982,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="6" t="s">
         <v>47</v>
       </c>
@@ -1970,7 +1997,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="35"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="6" t="s">
         <v>48</v>
       </c>
@@ -2111,21 +2138,21 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="10">
         <v>1</v>
       </c>
@@ -2557,11 +2584,11 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" s="22" t="s">
@@ -2578,7 +2605,7 @@
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2589,7 +2616,7 @@
       <c r="C6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2600,7 +2627,7 @@
       <c r="C7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -2632,11 +2659,11 @@
       <c r="C11" s="24"/>
     </row>
     <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="64" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="22" t="s">
@@ -2653,7 +2680,7 @@
       <c r="C14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -2682,7 +2709,7 @@
       <c r="C17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2699,11 +2726,11 @@
       <c r="E18" s="6"/>
     </row>
     <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
@@ -2738,7 +2765,7 @@
       <c r="C25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -2764,11 +2791,11 @@
       <c r="E27" s="6"/>
     </row>
     <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="22" t="s">
@@ -2821,7 +2848,7 @@
       <c r="C36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -2864,12 +2891,12 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
@@ -2969,12 +2996,12 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
     </row>
@@ -3057,12 +3084,12 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="25"/>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
     </row>
@@ -3111,12 +3138,12 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
@@ -3370,16 +3397,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="51"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="22" t="s">
@@ -3397,7 +3424,7 @@
       <c r="G4" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="48" t="s">
         <v>104</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -3408,7 +3435,7 @@
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -3417,13 +3444,13 @@
       <c r="F5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="52" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3431,7 +3458,7 @@
       <c r="C6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -3440,22 +3467,22 @@
       <c r="F6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -3464,22 +3491,22 @@
       <c r="F7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="50"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -3488,16 +3515,16 @@
       <c r="F8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="50"/>
+      <c r="J8" s="37"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C9" s="9" t="s">
@@ -3510,8 +3537,8 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C10" s="9" t="s">
@@ -3522,36 +3549,36 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="50"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C11" s="24"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="51"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="24"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="48"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="50"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="22" t="s">
@@ -3569,19 +3596,19 @@
       <c r="G14" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="48" t="s">
         <v>104</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="37"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -3590,22 +3617,22 @@
       <c r="F15" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -3614,16 +3641,16 @@
       <c r="F16" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="66" t="s">
+      <c r="I16" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="37"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" s="9" t="s">
@@ -3636,8 +3663,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="37"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C18" s="9" t="s">
@@ -3648,16 +3675,16 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="51"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="34" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -3666,16 +3693,16 @@
       <c r="F19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="I19" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="48"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
@@ -3686,34 +3713,34 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="50"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="50"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="51"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="22" t="s">
@@ -3737,7 +3764,7 @@
       <c r="I24" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="J24" s="50"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" s="9" t="s">
@@ -3750,8 +3777,8 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="37"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26" s="9" t="s">
@@ -3762,16 +3789,16 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="50"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C27" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E27" s="9" t="s">
@@ -3780,16 +3807,16 @@
       <c r="F27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="44" t="s">
         <v>117</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="37"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C28" s="9" t="s">
@@ -3800,10 +3827,10 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="50"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="37"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C29" s="9" t="s">
@@ -3814,33 +3841,33 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="50"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="50"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="37"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="50"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="37"/>
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" spans="3:9" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="22" t="s">
@@ -3876,7 +3903,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="63"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="9" t="s">
@@ -3889,7 +3916,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="63"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" s="9" t="s">
@@ -3902,7 +3929,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="63"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="9" t="s">
@@ -3915,13 +3942,13 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="63"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -3930,13 +3957,13 @@
       <c r="F38" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="47" t="s">
         <v>107</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="66" t="s">
+      <c r="I38" s="52" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3944,7 +3971,7 @@
       <c r="C39" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -3953,13 +3980,13 @@
       <c r="F39" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3967,7 +3994,7 @@
       <c r="C40" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -3976,13 +4003,13 @@
       <c r="F40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I40" s="67" t="s">
+      <c r="I40" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3990,7 +4017,7 @@
       <c r="C41" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -3999,13 +4026,13 @@
       <c r="F41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="67" t="s">
+      <c r="I41" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4013,7 +4040,7 @@
       <c r="C42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -4022,13 +4049,13 @@
       <c r="F42" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="47" t="s">
         <v>107</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="66" t="s">
+      <c r="I42" s="52" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4036,7 +4063,7 @@
       <c r="C43" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -4045,13 +4072,13 @@
       <c r="F43" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I43" s="67" t="s">
+      <c r="I43" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4059,7 +4086,7 @@
       <c r="C44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -4068,13 +4095,13 @@
       <c r="F44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="67" t="s">
+      <c r="I44" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4082,7 +4109,7 @@
       <c r="C45" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="9" t="s">
@@ -4091,13 +4118,13 @@
       <c r="F45" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="46" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I45" s="67" t="s">
+      <c r="I45" s="53" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4317,10 +4344,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I23"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4334,33 +4361,35 @@
     <col min="7" max="7" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="31" t="s">
         <v>132</v>
       </c>
@@ -4376,27 +4405,31 @@
       <c r="I3" s="31" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="J3" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4412,15 +4445,18 @@
       <c r="I5" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -4436,15 +4472,18 @@
       <c r="I6" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -4462,15 +4501,18 @@
       <c r="I7" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E8" s="6"/>
@@ -4480,65 +4522,75 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="71" t="s">
+      <c r="J8" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="56" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E12" s="6"/>
@@ -4548,27 +4600,31 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="71" t="s">
+      <c r="J12" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="54" t="s">
         <v>139</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -4582,27 +4638,29 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="71" t="s">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -4618,15 +4676,18 @@
       <c r="I16" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="6"/>
@@ -4636,15 +4697,18 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="6"/>
@@ -4654,15 +4718,18 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="6"/>
@@ -4672,15 +4739,18 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="52" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -4694,15 +4764,18 @@
         <v>156</v>
       </c>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="6"/>
@@ -4712,15 +4785,18 @@
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="6"/>
@@ -4730,15 +4806,18 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="53" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="6"/>
@@ -4748,16 +4827,19 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:I2"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
